--- a/biology/Zoologie/Hypochilus_bonneti/Hypochilus_bonneti.xlsx
+++ b/biology/Zoologie/Hypochilus_bonneti/Hypochilus_bonneti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypochilus bonneti est une espèce d'araignées aranéomorphes de la famille des Hypochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypochilus bonneti est une espèce d'araignées aranéomorphes de la famille des Hypochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis[1],[2]. Elle se rencontre dans la grotte Fly Cave dans le comté de Fremont, dans le parc national de Black Canyon of the Gunnison dans le comté de Gunnison et dans les Manitou Grand Caverns dans le comté d'El Paso[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis,. Elle se rencontre dans la grotte Fly Cave dans le comté de Fremont, dans le parc national de Black Canyon of the Gunnison dans le comté de Gunnison et dans les Manitou Grand Caverns dans le comté d'El Paso.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 12,4 mm et le mâle 8 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 12,4 mm et le mâle 8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre Bonnet[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre Bonnet.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gertsch, 1964 : A review of the genus Hypochilus and a description of a new species from Colorado (Araneae : Hypochilidae). American Museum Novitates, no 2203, p. 1-14 (texte intégral).</t>
         </is>
